--- a/datasets/modirisk-occurrences/survey inventory data/sourceFiguresExcel.xlsx
+++ b/datasets/modirisk-occurrences/survey inventory data/sourceFiguresExcel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="21075" windowHeight="8250"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21072" windowHeight="8256"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$G$1:$H$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>Aedes cinereus Meigen, 1818</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>Ochlerotatus sp.</t>
+  </si>
+  <si>
+    <t>scientificName</t>
+  </si>
+  <si>
+    <t>records</t>
   </si>
 </sst>
 </file>
@@ -271,7 +277,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-BE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -282,33 +288,34 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Occurrence Count RBINS Collection</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.35381031016487469"/>
-          <c:y val="0.18041804180418042"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -317,13 +324,13 @@
           <c:yMode val="edge"/>
           <c:x val="6.5765820676555856E-2"/>
           <c:y val="0.13658428835009487"/>
-          <c:w val="0.92103285919143096"/>
+          <c:w val="0.92103282361783279"/>
           <c:h val="0.65845846001923025"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -356,161 +363,161 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$G$1:$G$24</c:f>
+              <c:f>Blad1!$G$2:$G$25</c:f>
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>Culex pipiens</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Culiseta annulata</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Ochlerotatus punctor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Ochlerotatus cantans</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ochlerotatus geniculatus</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Culiseta morsitans</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Anopheles claviger</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Anopheles maculipennis</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Aedes cinereus</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ochlerotatus rusticus</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Coquillettidia richiardii</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ochlerotatus annulipes</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Anopheles plumbeus</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Ochlerotatus sticticus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ochlerotatus communis</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Ochlerotatus detritus</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Culex territans</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Aedes vexans</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Anopheles atroparvus</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Ochlerotatus caspius</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Culiseta fumipennis</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Culiseta subochrea</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>Culex hortensis</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="23">
                   <c:v>Culex torrentium</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Culiseta subochrea</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Culiseta fumipennis</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ochlerotatus caspius</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Aedes vexans</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Anopheles atroparvus</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Culex territans</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Ochlerotatus detritus</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ochlerotatus communis</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Ochlerotatus sticticus</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Anopheles plumbeus</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Ochlerotatus annulipes</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Coquillettidia richiardii</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Ochlerotatus rusticus</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Aedes cinereus</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Anopheles claviger</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Anopheles maculipennis</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Culiseta morsitans</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Ochlerotatus geniculatus</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Ochlerotatus cantans</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Ochlerotatus punctor</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Culiseta annulata</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Culex pipiens</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$H$1:$H$24</c:f>
+              <c:f>Blad1!$H$2:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="23">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -525,11 +532,13 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="93754880"/>
-        <c:axId val="45064960"/>
-      </c:barChart>
+        <c:shape val="box"/>
+        <c:axId val="188725888"/>
+        <c:axId val="188735872"/>
+        <c:axId val="115492160"/>
+      </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93754880"/>
+        <c:axId val="188725888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,7 +547,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45064960"/>
+        <c:crossAx val="188735872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -546,7 +555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45064960"/>
+        <c:axId val="188735872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,16 +577,22 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="93754880"/>
+        <c:crossAx val="188725888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
+      <c:serAx>
+        <c:axId val="115492160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="188735872"/>
+      </c:serAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -599,7 +614,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-BE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -681,7 +696,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$39:$A$61</c:f>
+              <c:f>Blad1!$A$40:$A$62</c:f>
               <c:strCache>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
@@ -758,7 +773,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$39:$B$61</c:f>
+              <c:f>Blad1!$B$40:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -844,11 +859,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="94149248"/>
-        <c:axId val="94288896"/>
+        <c:axId val="188756352"/>
+        <c:axId val="188757888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94149248"/>
+        <c:axId val="188756352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -857,7 +872,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94288896"/>
+        <c:crossAx val="188757888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -865,7 +880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94288896"/>
+        <c:axId val="188757888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +902,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="94149248"/>
+        <c:crossAx val="188756352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -918,7 +933,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-BE"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1000,7 +1015,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$68:$A$101</c:f>
+              <c:f>Blad1!$A$69:$A$102</c:f>
               <c:strCache>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
@@ -1110,7 +1125,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$68:$B$101</c:f>
+              <c:f>Blad1!$B$69:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
@@ -1229,11 +1244,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97000448"/>
-        <c:axId val="97023104"/>
+        <c:axId val="188769792"/>
+        <c:axId val="188771328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97000448"/>
+        <c:axId val="188769792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,7 +1257,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97023104"/>
+        <c:crossAx val="188771328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1250,7 +1265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97023104"/>
+        <c:axId val="188771328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,7 +1287,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="97000448"/>
+        <c:crossAx val="188769792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1304,16 +1319,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139064</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1334,16 +1349,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1226820</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>573405</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1368,13 +1383,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1686,189 +1701,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
         <v>56</v>
       </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>59</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>414</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>192</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1882,617 +1891,636 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>414</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16">
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>88</v>
-      </c>
-      <c r="G21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>114</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>55</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>18</v>
-      </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>50</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>52</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>51</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>53</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>30</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>37</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>42</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>35</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>55</v>
-      </c>
-      <c r="B50">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>45</v>
       </c>
       <c r="B51">
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>39</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>34</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>46</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>27</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>40</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>48</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>44</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>29</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>32</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>58</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>63</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>49</v>
-      </c>
-      <c r="B72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>61</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>57</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>50</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>59</v>
-      </c>
-      <c r="B79">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>62</v>
       </c>
       <c r="B80">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>33</v>
-      </c>
-      <c r="B81">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>39</v>
       </c>
       <c r="B82">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>41</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>47</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>56</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>37</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>25</v>
-      </c>
-      <c r="B87">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>60</v>
       </c>
       <c r="B88">
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>46</v>
       </c>
-      <c r="B89">
+      <c r="B90">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>42</v>
       </c>
-      <c r="B90">
+      <c r="B91">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>30</v>
       </c>
-      <c r="B91">
+      <c r="B92">
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>51</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>44</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>45</v>
       </c>
-      <c r="B94">
+      <c r="B95">
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>34</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>48</v>
       </c>
-      <c r="B96">
+      <c r="B97">
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>40</v>
       </c>
-      <c r="B97">
+      <c r="B98">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>29</v>
       </c>
-      <c r="B98">
+      <c r="B99">
         <v>123</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>35</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <v>199</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>27</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>32</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <v>1100</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:H25">
+      <sortCondition descending="1" ref="H1"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A68:B101">
     <sortCondition ref="B68:B101"/>
   </sortState>
@@ -2507,7 +2535,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2519,7 +2547,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
